--- a/data/trans_orig/IQ21A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IQ21A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D5C6B2-66FC-45CC-B0F2-A552007EFA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F128384-3B32-4A37-9F5B-1D27A6D8838E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86626CB6-DD11-46B3-933F-94A5A5157D27}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{25F2AB47-3E63-4FF9-921F-F1CA690B7E2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="252">
   <si>
     <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2007 (Tasa respuesta: 4,23%)</t>
   </si>
@@ -89,31 +89,31 @@
     <t>20,89%</t>
   </si>
   <si>
-    <t>73,89%</t>
+    <t>81,34%</t>
   </si>
   <si>
     <t>13,55%</t>
   </si>
   <si>
-    <t>55,53%</t>
+    <t>56,03%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>79,54%</t>
+    <t>79,53%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>50,68%</t>
+    <t>50,6%</t>
   </si>
   <si>
     <t>59,76%</t>
   </si>
   <si>
-    <t>19,07%</t>
+    <t>18,78%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -128,7 +128,7 @@
     <t>73,91%</t>
   </si>
   <si>
-    <t>35,04%</t>
+    <t>34,75%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -146,61 +146,61 @@
     <t>2,64%</t>
   </si>
   <si>
-    <t>16,87%</t>
+    <t>13,9%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>6,91%</t>
+    <t>6,23%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>20,25%</t>
+    <t>20,04%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>75,47%</t>
+    <t>77,85%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -233,328 +233,331 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>11,54%</t>
+    <t>11,69%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>7,63%</t>
+    <t>5,97%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>9,1%</t>
+    <t>9,25%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>3,9%</t>
+    <t>4,26%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>11,84%</t>
+    <t>13,39%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2012 (Tasa respuesta: 4,14%)</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2012 (Tasa respuesta: 4,14%)</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>7,95%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>14,46%</t>
+    <t>12,79%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>89,76%</t>
   </si>
   <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
   </si>
   <si>
     <t>86,51%</t>
   </si>
   <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2016 (Tasa respuesta: 2,92%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
     <t>75,76%</t>
   </si>
   <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2015 (Tasa respuesta: 2,92%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>27,09%</t>
+    <t>24,5%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -563,19 +566,16 @@
     <t>2,95%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>12,22%</t>
+    <t>12,12%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -587,88 +587,91 @@
     <t>3,86%</t>
   </si>
   <si>
-    <t>21,09%</t>
+    <t>16,78%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>9,82%</t>
+    <t>8,98%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>19,47%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>86,36%</t>
   </si>
   <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>63,9%</t>
+    <t>53,31%</t>
   </si>
   <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>36,1%</t>
+    <t>46,69%</t>
   </si>
   <si>
     <t>89,28%</t>
   </si>
   <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
   </si>
   <si>
     <t>5,61%</t>
@@ -677,85 +680,79 @@
     <t>1,88%</t>
   </si>
   <si>
-    <t>9,38%</t>
+    <t>9,36%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>15,55%</t>
+    <t>17,78%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>12,89%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>6,55%</t>
+    <t>5,14%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>21,87%</t>
+    <t>21,33%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2023 (Tasa respuesta: 1,72%)</t>
@@ -1209,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF45EF48-F5F9-48DF-A867-8D2B650E6EA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCC011A-9380-4A6D-A558-20236A25284E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2650,7 +2647,7 @@
         <v>77</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2662,13 @@
         <v>29865</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -2680,10 +2677,10 @@
         <v>24273</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>25</v>
@@ -2695,13 +2692,13 @@
         <v>54137</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,7 +2754,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF59227-F685-41A2-A3EA-66653032C84E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B6381B-1535-401E-AD77-3266460363AC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2793,7 +2790,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3002,13 +2999,13 @@
         <v>628</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3032,13 +3029,13 @@
         <v>628</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,10 +3152,10 @@
         <v>2554</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>25</v>
@@ -3185,10 +3182,10 @@
         <v>4669</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>25</v>
@@ -3265,37 +3262,37 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,37 +3313,37 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,14 +3358,14 @@
         <v>887</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -3382,7 +3379,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3391,13 +3388,13 @@
         <v>887</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,14 +3409,14 @@
         <v>654</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -3433,7 +3430,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3442,13 +3439,13 @@
         <v>654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3460,13 @@
         <v>647</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -3478,13 +3475,13 @@
         <v>3597</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -3493,13 +3490,13 @@
         <v>4244</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3511,13 @@
         <v>19173</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -3529,13 +3526,13 @@
         <v>17936</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -3544,13 +3541,13 @@
         <v>37110</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3639,7 +3636,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3654,7 +3651,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,7 +3672,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3690,7 +3687,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3705,7 +3702,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,7 +3723,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3741,7 +3738,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3756,7 +3753,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,7 +3774,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3792,7 +3789,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3807,7 +3804,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3819,13 @@
         <v>1268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3843,7 +3840,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3852,13 +3849,13 @@
         <v>1268</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,10 +3870,10 @@
         <v>6666</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>25</v>
@@ -3891,7 +3888,7 @@
         <v>25</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>27</v>
@@ -3903,10 +3900,10 @@
         <v>11044</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>25</v>
@@ -3998,7 +3995,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4013,7 +4010,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,7 +4046,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4064,7 +4061,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4076,13 @@
         <v>1516</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4100,7 +4097,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -4109,13 +4106,13 @@
         <v>1516</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4127,13 @@
         <v>654</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4151,7 +4148,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -4166,7 +4163,7 @@
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4178,13 @@
         <v>1915</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -4196,13 +4193,13 @@
         <v>3597</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -4211,13 +4208,13 @@
         <v>5512</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4229,13 @@
         <v>28392</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>36</v>
@@ -4247,13 +4244,13 @@
         <v>24429</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>76</v>
@@ -4262,13 +4259,13 @@
         <v>52822</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,7 +4321,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4343,7 +4340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1136C4-B209-4E16-9AA7-85A76101F8FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3D0B2A-9058-40C1-8E8E-BD6CDBB27448}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4360,7 +4357,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4473,7 +4470,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4503,7 +4500,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,7 +4521,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4554,7 +4551,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,7 +4572,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4605,7 +4602,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,7 +4623,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4656,7 +4653,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,7 +4674,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4686,7 +4683,7 @@
         <v>676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>10</v>
@@ -4701,13 +4698,13 @@
         <v>676</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,7 +4722,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>27</v>
@@ -4737,7 +4734,7 @@
         <v>1221</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>10</v>
@@ -4752,10 +4749,10 @@
         <v>2112</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>25</v>
@@ -4826,13 +4823,13 @@
         <v>790</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4847,7 +4844,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4856,13 +4853,13 @@
         <v>790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,7 +4874,7 @@
         <v>652</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
@@ -4898,7 +4895,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4949,7 +4946,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5045,7 +5042,7 @@
         <v>1439</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>10</v>
@@ -5063,10 +5060,10 @@
         <v>188</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5078,13 @@
         <v>12666</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -5096,13 +5093,13 @@
         <v>10224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -5111,13 +5108,13 @@
         <v>22889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,7 +5203,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5221,7 +5218,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5272,7 +5269,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,7 +5305,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5323,7 +5320,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,7 +5356,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5374,7 +5371,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5386,13 @@
         <v>692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5404,13 +5401,13 @@
         <v>772</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -5419,13 +5416,13 @@
         <v>1464</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,10 +5437,10 @@
         <v>4448</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>25</v>
@@ -5455,10 +5452,10 @@
         <v>6428</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>25</v>
@@ -5470,10 +5467,10 @@
         <v>10876</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>25</v>
@@ -5550,7 +5547,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5565,7 +5562,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -5574,13 +5571,13 @@
         <v>790</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5592,13 @@
         <v>652</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5616,7 +5613,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5625,13 +5622,13 @@
         <v>652</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,7 +5664,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -5682,7 +5679,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5709,13 @@
         <v>469</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -5727,13 +5724,13 @@
         <v>469</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5745,13 @@
         <v>1250</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5763,13 +5760,13 @@
         <v>2886</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -5778,13 +5775,13 @@
         <v>4136</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5796,13 @@
         <v>18005</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -5814,13 +5811,13 @@
         <v>17873</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M30" s="7">
         <v>53</v>
@@ -5829,13 +5826,13 @@
         <v>35878</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,7 +5888,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5910,7 +5907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BE8B81-4E24-473A-A667-25C78A881095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA65ED4-E141-4C25-B556-A455E865734A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5927,7 +5924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6040,20 +6037,20 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6068,7 +6065,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,20 +6086,20 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6117,7 +6114,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,20 +6135,20 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6166,7 +6163,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,20 +6184,20 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6215,7 +6212,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,20 +6233,20 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6264,7 +6261,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,7 +6279,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>27</v>
@@ -6292,13 +6289,13 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -6310,7 +6307,7 @@
         <v>25</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>27</v>
@@ -6341,13 +6338,13 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -6385,37 +6382,37 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,37 +6433,37 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,37 +6484,37 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,37 +6535,37 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,37 +6586,37 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,7 +6634,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>27</v>
@@ -6652,7 +6649,7 @@
         <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>27</v>
@@ -6667,7 +6664,7 @@
         <v>25</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>27</v>
@@ -6744,7 +6741,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6759,7 +6756,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6795,7 +6792,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6810,7 +6807,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6846,7 +6843,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6861,7 +6858,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6897,7 +6894,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6912,7 +6909,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6948,7 +6945,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6963,7 +6960,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6996,7 +6993,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>27</v>
@@ -7011,7 +7008,7 @@
         <v>25</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>27</v>
@@ -7118,7 +7115,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7133,7 +7130,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,7 +7166,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7184,7 +7181,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,7 +7217,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -7235,7 +7232,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,7 +7268,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7286,7 +7283,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,7 +7319,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7337,7 +7334,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,7 +7367,7 @@
         <v>25</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>27</v>
@@ -7385,7 +7382,7 @@
         <v>25</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>27</v>
@@ -7444,7 +7441,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
